--- a/ADMET_bp.xlsx
+++ b/ADMET_bp.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -613,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -921,10 +921,10 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -943,10 +943,10 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -984,10 +984,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1053,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1295,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1314,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1336,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1380,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1559,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/ADMET_bp.xlsx
+++ b/ADMET_bp.xlsx
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
@@ -547,7 +547,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -569,7 +569,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -613,10 +613,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -635,7 +635,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>1</v>
@@ -723,7 +723,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1</v>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1</v>
@@ -811,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>1</v>
@@ -874,10 +874,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -921,7 +921,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>1</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1053,10 +1053,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>1</v>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>1</v>
@@ -1248,10 +1248,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
@@ -1270,10 +1270,10 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>1</v>
@@ -1295,10 +1295,10 @@
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1314,10 +1314,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>1</v>
@@ -1336,10 +1336,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>1</v>
@@ -1358,10 +1358,10 @@
         <v>1</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>1</v>
@@ -1380,10 +1380,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>1</v>
@@ -1402,10 +1402,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>1</v>
@@ -1424,10 +1424,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>1</v>
@@ -1446,10 +1446,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>1</v>
@@ -1471,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>1</v>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="n">
         <v>1</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>1</v>
@@ -1559,10 +1559,10 @@
         <v>1</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ADMET_bp.xlsx
+++ b/ADMET_bp.xlsx
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -616,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -1248,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -1270,7 +1270,7 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
